--- a/experimenten jiswi/the one v4.2.xlsx
+++ b/experimenten jiswi/the one v4.2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ee38df677a9f564/Documenten/Maritieme techniek/Q4/IP-26/experimenten jiswi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_F25DC773A252ABDACC10487271D94BF05ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AA35EE8-3643-49A0-8D78-5376EBBDBC71}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="11_F25DC773A252ABDACC10487271D94BF05ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5026BF68-E7F7-4AD8-9DF5-AA6BA6A75AAD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Last" sheetId="1" r:id="rId1"/>
-    <sheet name="Varend" sheetId="2" r:id="rId2"/>
+    <sheet name="Leeg" sheetId="3" r:id="rId2"/>
+    <sheet name="Varend" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="115">
   <si>
     <t>LOADING CONDITION</t>
   </si>
@@ -377,6 +378,12 @@
   <si>
     <t>Deck is 7401 mm from WL</t>
   </si>
+  <si>
+    <t>SHIP DOES NOT ADHERE TO LWL/B RATIO LIMITATION</t>
+  </si>
+  <si>
+    <t>Deck is 15201 mm from WL</t>
+  </si>
 </sst>
 </file>
 
@@ -697,7 +704,7 @@
   <dimension ref="A2:M301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8127,11 +8134,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8DE46C-D874-4835-A3A6-667EC9ED79BA}">
-  <dimension ref="A2:M302"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93265102-F07A-4F11-8BD8-FD267229EDF0}">
+  <dimension ref="A2:M303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8173,6 +8180,7450 @@
         <v>27</v>
       </c>
       <c r="B6">
+        <v>153.28800000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>8.7780000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>96.555000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>4.2990000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>4.2990000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13">
+        <v>4.2990000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>18.338999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18">
+        <v>110.247</v>
+      </c>
+      <c r="C18">
+        <v>-8.8650000000000002</v>
+      </c>
+      <c r="D18">
+        <v>4.2990000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>10510.200999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>92037.694000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>67.233999999999995</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2.5790000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <v>66.331999999999994</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>11.315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24">
+        <v>0.40050000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>0.4587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>3619.989</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <v>63.679000000000002</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>4.2990000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <v>271885.29599999997</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4400100</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4672000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30">
+        <v>3988.8589999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>122.97799999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35">
+        <v>137.58500000000001</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36">
+        <v>136.994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38">
+        <v>0.38200000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39">
+        <v>137.745</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40">
+        <v>2E-3</v>
+      </c>
+      <c r="C40">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D40">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3.52</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>10.82</v>
+      </c>
+      <c r="B45">
+        <v>24.422999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>18.119</v>
+      </c>
+      <c r="B46">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>25.419</v>
+      </c>
+      <c r="B47">
+        <v>77.099999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>32.718000000000004</v>
+      </c>
+      <c r="B48">
+        <v>95.67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>40.017000000000003</v>
+      </c>
+      <c r="B49">
+        <v>109.127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>47.317</v>
+      </c>
+      <c r="B50">
+        <v>117.866</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>54.616</v>
+      </c>
+      <c r="B51">
+        <v>122.33199999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>61.915999999999997</v>
+      </c>
+      <c r="B52">
+        <v>122.97799999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>69.215000000000003</v>
+      </c>
+      <c r="B53">
+        <v>120.261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>76.513999999999996</v>
+      </c>
+      <c r="B54">
+        <v>114.65600000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>83.813999999999993</v>
+      </c>
+      <c r="B55">
+        <v>106.506</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>91.113</v>
+      </c>
+      <c r="B56">
+        <v>95.335999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>98.412999999999997</v>
+      </c>
+      <c r="B57">
+        <v>80.44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>105.712</v>
+      </c>
+      <c r="B58">
+        <v>62.226999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>113.011</v>
+      </c>
+      <c r="B59">
+        <v>45.006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>120.31100000000001</v>
+      </c>
+      <c r="B60">
+        <v>33.259</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>127.61</v>
+      </c>
+      <c r="B61">
+        <v>25.082999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>134.91</v>
+      </c>
+      <c r="B62">
+        <v>18.123000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>142.209</v>
+      </c>
+      <c r="B63">
+        <v>11.307</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>149.50899999999999</v>
+      </c>
+      <c r="B64">
+        <v>4.5880000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>156.80799999999999</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>57</v>
+      </c>
+      <c r="B67">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>-11.206</v>
+      </c>
+      <c r="B69">
+        <v>350.05700000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>-2.1579999999999999</v>
+      </c>
+      <c r="B70">
+        <v>456.089</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>6.89</v>
+      </c>
+      <c r="B71">
+        <v>537.76400000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>15.936999999999999</v>
+      </c>
+      <c r="B72">
+        <v>599.29600000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>24.984999999999999</v>
+      </c>
+      <c r="B73">
+        <v>644.25099999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>34.033000000000001</v>
+      </c>
+      <c r="B74">
+        <v>675.25800000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>43.08</v>
+      </c>
+      <c r="B75">
+        <v>694.30499999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>52.128</v>
+      </c>
+      <c r="B76">
+        <v>702.92899999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>61.174999999999997</v>
+      </c>
+      <c r="B77">
+        <v>702.33399999999995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>70.222999999999999</v>
+      </c>
+      <c r="B78">
+        <v>693.41899999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>79.271000000000001</v>
+      </c>
+      <c r="B79">
+        <v>676.67700000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>88.317999999999998</v>
+      </c>
+      <c r="B80">
+        <v>650.64400000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>97.366</v>
+      </c>
+      <c r="B81">
+        <v>609.45600000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>106.413</v>
+      </c>
+      <c r="B82">
+        <v>545.86900000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>115.461</v>
+      </c>
+      <c r="B83">
+        <v>469.41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>124.509</v>
+      </c>
+      <c r="B84">
+        <v>398.32799999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>133.55600000000001</v>
+      </c>
+      <c r="B85">
+        <v>330.42599999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>142.60400000000001</v>
+      </c>
+      <c r="B86">
+        <v>261.07499999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>151.65199999999999</v>
+      </c>
+      <c r="B87">
+        <v>188.166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>160.69900000000001</v>
+      </c>
+      <c r="B88">
+        <v>111.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>169.74700000000001</v>
+      </c>
+      <c r="B89">
+        <v>39.500999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>178.79400000000001</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>57</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>58</v>
+      </c>
+      <c r="B93" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>136.994</v>
+      </c>
+      <c r="B94">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>137.53100000000001</v>
+      </c>
+      <c r="B95">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>138.06800000000001</v>
+      </c>
+      <c r="B96">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>138.60499999999999</v>
+      </c>
+      <c r="B97">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>139.142</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>60</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>57</v>
+      </c>
+      <c r="B101">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>61</v>
+      </c>
+      <c r="B102" t="s">
+        <v>62</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" t="s">
+        <v>65</v>
+      </c>
+      <c r="F102" t="s">
+        <v>66</v>
+      </c>
+      <c r="G102" t="s">
+        <v>67</v>
+      </c>
+      <c r="H102" t="s">
+        <v>68</v>
+      </c>
+      <c r="I102" t="s">
+        <v>69</v>
+      </c>
+      <c r="J102" t="s">
+        <v>70</v>
+      </c>
+      <c r="K102" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>-11.206</v>
+      </c>
+      <c r="B103">
+        <v>87.287999999999997</v>
+      </c>
+      <c r="C103">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D103">
+        <v>-11.206</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>14.797000000000001</v>
+      </c>
+      <c r="G103">
+        <v>14.214</v>
+      </c>
+      <c r="H103">
+        <v>1.9139999999999999</v>
+      </c>
+      <c r="I103">
+        <v>12.3</v>
+      </c>
+      <c r="J103">
+        <v>7.9169999999999998</v>
+      </c>
+      <c r="K103">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>-2.1579999999999999</v>
+      </c>
+      <c r="B104">
+        <v>92.531000000000006</v>
+      </c>
+      <c r="C104">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="D104">
+        <v>-2.1579999999999999</v>
+      </c>
+      <c r="E104">
+        <v>2E-3</v>
+      </c>
+      <c r="F104">
+        <v>13.523999999999999</v>
+      </c>
+      <c r="G104">
+        <v>17.431000000000001</v>
+      </c>
+      <c r="H104">
+        <v>3.2330000000000001</v>
+      </c>
+      <c r="I104">
+        <v>14.198</v>
+      </c>
+      <c r="J104">
+        <v>5.5140000000000002</v>
+      </c>
+      <c r="K104">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>6.89</v>
+      </c>
+      <c r="B105">
+        <v>97.578999999999994</v>
+      </c>
+      <c r="C105">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="D105">
+        <v>6.89</v>
+      </c>
+      <c r="E105">
+        <v>1E-3</v>
+      </c>
+      <c r="F105">
+        <v>12.58</v>
+      </c>
+      <c r="G105">
+        <v>20.548999999999999</v>
+      </c>
+      <c r="H105">
+        <v>4.4249999999999998</v>
+      </c>
+      <c r="I105">
+        <v>16.125</v>
+      </c>
+      <c r="J105">
+        <v>3.698</v>
+      </c>
+      <c r="K105">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>15.936999999999999</v>
+      </c>
+      <c r="B106">
+        <v>101.491</v>
+      </c>
+      <c r="C106">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D106">
+        <v>15.936999999999999</v>
+      </c>
+      <c r="E106">
+        <v>-1E-3</v>
+      </c>
+      <c r="F106">
+        <v>11.904999999999999</v>
+      </c>
+      <c r="G106">
+        <v>23.169</v>
+      </c>
+      <c r="H106">
+        <v>5.4059999999999997</v>
+      </c>
+      <c r="I106">
+        <v>17.763000000000002</v>
+      </c>
+      <c r="J106">
+        <v>2.4279999999999999</v>
+      </c>
+      <c r="K106">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>24.984999999999999</v>
+      </c>
+      <c r="B107">
+        <v>104.319</v>
+      </c>
+      <c r="C107">
+        <v>0.104</v>
+      </c>
+      <c r="D107">
+        <v>24.984999999999999</v>
+      </c>
+      <c r="E107">
+        <v>-1E-3</v>
+      </c>
+      <c r="F107">
+        <v>11.430999999999999</v>
+      </c>
+      <c r="G107">
+        <v>25.192</v>
+      </c>
+      <c r="H107">
+        <v>6.1680000000000001</v>
+      </c>
+      <c r="I107">
+        <v>19.023</v>
+      </c>
+      <c r="J107">
+        <v>1.53</v>
+      </c>
+      <c r="K107">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>34.033000000000001</v>
+      </c>
+      <c r="B108">
+        <v>106.214</v>
+      </c>
+      <c r="C108">
+        <v>0.106</v>
+      </c>
+      <c r="D108">
+        <v>34.033000000000001</v>
+      </c>
+      <c r="E108">
+        <v>2E-3</v>
+      </c>
+      <c r="F108">
+        <v>11.111000000000001</v>
+      </c>
+      <c r="G108">
+        <v>26.617999999999999</v>
+      </c>
+      <c r="H108">
+        <v>6.7229999999999999</v>
+      </c>
+      <c r="I108">
+        <v>19.895</v>
+      </c>
+      <c r="J108">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="K108">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>43.08</v>
+      </c>
+      <c r="B109">
+        <v>107.30800000000001</v>
+      </c>
+      <c r="C109">
+        <v>0.107</v>
+      </c>
+      <c r="D109">
+        <v>43.08</v>
+      </c>
+      <c r="E109">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="F109">
+        <v>10.907999999999999</v>
+      </c>
+      <c r="G109">
+        <v>27.484999999999999</v>
+      </c>
+      <c r="H109">
+        <v>7.0940000000000003</v>
+      </c>
+      <c r="I109">
+        <v>20.390999999999998</v>
+      </c>
+      <c r="J109">
+        <v>0.48</v>
+      </c>
+      <c r="K109">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>52.128</v>
+      </c>
+      <c r="B110">
+        <v>107.705</v>
+      </c>
+      <c r="C110">
+        <v>0.108</v>
+      </c>
+      <c r="D110">
+        <v>52.128</v>
+      </c>
+      <c r="E110">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="F110">
+        <v>10.816000000000001</v>
+      </c>
+      <c r="G110">
+        <v>27.824000000000002</v>
+      </c>
+      <c r="H110">
+        <v>7.2839999999999998</v>
+      </c>
+      <c r="I110">
+        <v>20.54</v>
+      </c>
+      <c r="J110">
+        <v>0.218</v>
+      </c>
+      <c r="K110">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>61.174999999999997</v>
+      </c>
+      <c r="B111">
+        <v>107.482</v>
+      </c>
+      <c r="C111">
+        <v>0.107</v>
+      </c>
+      <c r="D111">
+        <v>61.174999999999997</v>
+      </c>
+      <c r="E111">
+        <v>-1E-3</v>
+      </c>
+      <c r="F111">
+        <v>10.819000000000001</v>
+      </c>
+      <c r="G111">
+        <v>27.663</v>
+      </c>
+      <c r="H111">
+        <v>7.3140000000000001</v>
+      </c>
+      <c r="I111">
+        <v>20.347999999999999</v>
+      </c>
+      <c r="J111">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="K111">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>70.222999999999999</v>
+      </c>
+      <c r="B112">
+        <v>106.693</v>
+      </c>
+      <c r="C112">
+        <v>0.107</v>
+      </c>
+      <c r="D112">
+        <v>70.222999999999999</v>
+      </c>
+      <c r="E112">
+        <v>-1E-3</v>
+      </c>
+      <c r="F112">
+        <v>10.898</v>
+      </c>
+      <c r="G112">
+        <v>27.094000000000001</v>
+      </c>
+      <c r="H112">
+        <v>7.2160000000000002</v>
+      </c>
+      <c r="I112">
+        <v>19.878</v>
+      </c>
+      <c r="J112">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="K112">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>79.271000000000001</v>
+      </c>
+      <c r="B113">
+        <v>105.371</v>
+      </c>
+      <c r="C113">
+        <v>0.105</v>
+      </c>
+      <c r="D113">
+        <v>79.271000000000001</v>
+      </c>
+      <c r="E113">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="F113">
+        <v>11.051</v>
+      </c>
+      <c r="G113">
+        <v>26.132000000000001</v>
+      </c>
+      <c r="H113">
+        <v>7.0069999999999997</v>
+      </c>
+      <c r="I113">
+        <v>19.125</v>
+      </c>
+      <c r="J113">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K113">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>88.317999999999998</v>
+      </c>
+      <c r="B114">
+        <v>103.44199999999999</v>
+      </c>
+      <c r="C114">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D114">
+        <v>88.317999999999998</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>11.303000000000001</v>
+      </c>
+      <c r="G114">
+        <v>24.757000000000001</v>
+      </c>
+      <c r="H114">
+        <v>6.6669999999999998</v>
+      </c>
+      <c r="I114">
+        <v>18.09</v>
+      </c>
+      <c r="J114">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K114">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>97.366</v>
+      </c>
+      <c r="B115">
+        <v>100.57599999999999</v>
+      </c>
+      <c r="C115">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D115">
+        <v>97.366</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>11.669</v>
+      </c>
+      <c r="G115">
+        <v>22.684000000000001</v>
+      </c>
+      <c r="H115">
+        <v>6.1369999999999996</v>
+      </c>
+      <c r="I115">
+        <v>16.547000000000001</v>
+      </c>
+      <c r="J115">
+        <v>0.09</v>
+      </c>
+      <c r="K115">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>106.413</v>
+      </c>
+      <c r="B116">
+        <v>96.171000000000006</v>
+      </c>
+      <c r="C116">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D116">
+        <v>106.413</v>
+      </c>
+      <c r="E116">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F116">
+        <v>12.14</v>
+      </c>
+      <c r="G116">
+        <v>19.61</v>
+      </c>
+      <c r="H116">
+        <v>5.359</v>
+      </c>
+      <c r="I116">
+        <v>14.250999999999999</v>
+      </c>
+      <c r="J116">
+        <v>0.108</v>
+      </c>
+      <c r="K116">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115.461</v>
+      </c>
+      <c r="B117">
+        <v>90.117999999999995</v>
+      </c>
+      <c r="C117">
+        <v>0.09</v>
+      </c>
+      <c r="D117">
+        <v>115.461</v>
+      </c>
+      <c r="E117">
+        <v>-1E-3</v>
+      </c>
+      <c r="F117">
+        <v>12.513999999999999</v>
+      </c>
+      <c r="G117">
+        <v>15.756</v>
+      </c>
+      <c r="H117">
+        <v>4.5350000000000001</v>
+      </c>
+      <c r="I117">
+        <v>11.221</v>
+      </c>
+      <c r="J117">
+        <v>0.08</v>
+      </c>
+      <c r="K117">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>124.509</v>
+      </c>
+      <c r="B118">
+        <v>83.186999999999998</v>
+      </c>
+      <c r="C118">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="D118">
+        <v>124.509</v>
+      </c>
+      <c r="E118">
+        <v>-1E-3</v>
+      </c>
+      <c r="F118">
+        <v>12.683</v>
+      </c>
+      <c r="G118">
+        <v>12.117000000000001</v>
+      </c>
+      <c r="H118">
+        <v>3.9079999999999999</v>
+      </c>
+      <c r="I118">
+        <v>8.2089999999999996</v>
+      </c>
+      <c r="J118">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K118">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>133.55600000000001</v>
+      </c>
+      <c r="B119">
+        <v>75.888000000000005</v>
+      </c>
+      <c r="C119">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="D119">
+        <v>133.55600000000001</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>12.754</v>
+      </c>
+      <c r="G119">
+        <v>9</v>
+      </c>
+      <c r="H119">
+        <v>3.379</v>
+      </c>
+      <c r="I119">
+        <v>5.6210000000000004</v>
+      </c>
+      <c r="J119">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="K119">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>142.60400000000001</v>
+      </c>
+      <c r="B120">
+        <v>67.748999999999995</v>
+      </c>
+      <c r="C120">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D120">
+        <v>142.60400000000001</v>
+      </c>
+      <c r="E120">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="F120">
+        <v>12.909000000000001</v>
+      </c>
+      <c r="G120">
+        <v>6.2930000000000001</v>
+      </c>
+      <c r="H120">
+        <v>2.7679999999999998</v>
+      </c>
+      <c r="I120">
+        <v>3.5249999999999999</v>
+      </c>
+      <c r="J120">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="K120">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>151.65199999999999</v>
+      </c>
+      <c r="B121">
+        <v>57.335000000000001</v>
+      </c>
+      <c r="C121">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="D121">
+        <v>151.65199999999999</v>
+      </c>
+      <c r="E121">
+        <v>-2E-3</v>
+      </c>
+      <c r="F121">
+        <v>13.481999999999999</v>
+      </c>
+      <c r="G121">
+        <v>3.8220000000000001</v>
+      </c>
+      <c r="H121">
+        <v>1.8959999999999999</v>
+      </c>
+      <c r="I121">
+        <v>1.9259999999999999</v>
+      </c>
+      <c r="J121">
+        <v>2.617</v>
+      </c>
+      <c r="K121">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>160.69900000000001</v>
+      </c>
+      <c r="B122">
+        <v>44.284999999999997</v>
+      </c>
+      <c r="C122">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D122">
+        <v>160.69900000000001</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>14.587999999999999</v>
+      </c>
+      <c r="G122">
+        <v>1.762</v>
+      </c>
+      <c r="H122">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="I122">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="J122">
+        <v>5.9779999999999998</v>
+      </c>
+      <c r="K122">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>169.74700000000001</v>
+      </c>
+      <c r="B123">
+        <v>26.268999999999998</v>
+      </c>
+      <c r="C123">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D123">
+        <v>169.74700000000001</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>16.696000000000002</v>
+      </c>
+      <c r="G123">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="H123">
+        <v>0.191</v>
+      </c>
+      <c r="I123">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="J123">
+        <v>11.750999999999999</v>
+      </c>
+      <c r="K123">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>178.79400000000001</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>178.79400000000001</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>19.498999999999999</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>72</v>
+      </c>
+      <c r="B126">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>73</v>
+      </c>
+      <c r="B127">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>74</v>
+      </c>
+      <c r="B128">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>75</v>
+      </c>
+      <c r="B129">
+        <v>4.2990000000000004</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>76</v>
+      </c>
+      <c r="B130">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>77</v>
+      </c>
+      <c r="B131">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>78</v>
+      </c>
+      <c r="B132">
+        <v>87777.063999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>79</v>
+      </c>
+      <c r="B133">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>30</v>
+      </c>
+      <c r="B134">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>80</v>
+      </c>
+      <c r="B135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>81</v>
+      </c>
+      <c r="B136">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>82</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>34</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>83</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>84</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>85</v>
+      </c>
+      <c r="B141">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>86</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>87</v>
+      </c>
+      <c r="B143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>88</v>
+      </c>
+      <c r="B144">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>89</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>90</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>91</v>
+      </c>
+      <c r="B152" t="s">
+        <v>92</v>
+      </c>
+      <c r="C152" t="s">
+        <v>93</v>
+      </c>
+      <c r="D152" t="s">
+        <v>94</v>
+      </c>
+      <c r="E152" t="s">
+        <v>95</v>
+      </c>
+      <c r="F152" t="s">
+        <v>96</v>
+      </c>
+      <c r="G152" t="s">
+        <v>97</v>
+      </c>
+      <c r="H152" t="s">
+        <v>98</v>
+      </c>
+      <c r="I152" t="s">
+        <v>99</v>
+      </c>
+      <c r="J152" t="s">
+        <v>100</v>
+      </c>
+      <c r="K152" t="s">
+        <v>101</v>
+      </c>
+      <c r="L152" t="s">
+        <v>102</v>
+      </c>
+      <c r="M152" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>19</v>
+      </c>
+      <c r="B153">
+        <v>9.7744444444444394</v>
+      </c>
+      <c r="C153">
+        <v>0.25206014905993701</v>
+      </c>
+      <c r="D153">
+        <v>532319.993432638</v>
+      </c>
+      <c r="E153">
+        <v>344927.42792162398</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>103532.89076736401</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>83859.674743649099</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0.17299296478520601</v>
+      </c>
+      <c r="M153">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>57</v>
+      </c>
+      <c r="B155">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>91</v>
+      </c>
+      <c r="B156" t="s">
+        <v>92</v>
+      </c>
+      <c r="C156" t="s">
+        <v>93</v>
+      </c>
+      <c r="D156" t="s">
+        <v>94</v>
+      </c>
+      <c r="E156" t="s">
+        <v>95</v>
+      </c>
+      <c r="F156" t="s">
+        <v>96</v>
+      </c>
+      <c r="G156" t="s">
+        <v>97</v>
+      </c>
+      <c r="H156" t="s">
+        <v>98</v>
+      </c>
+      <c r="I156" t="s">
+        <v>99</v>
+      </c>
+      <c r="J156" t="s">
+        <v>100</v>
+      </c>
+      <c r="K156" t="s">
+        <v>101</v>
+      </c>
+      <c r="L156" t="s">
+        <v>102</v>
+      </c>
+      <c r="M156" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>6</v>
+      </c>
+      <c r="B157">
+        <v>3.0866666666666598</v>
+      </c>
+      <c r="C157">
+        <v>7.9597941808401296E-2</v>
+      </c>
+      <c r="D157">
+        <v>48177.665992383503</v>
+      </c>
+      <c r="E157">
+        <v>39814.897683041898</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>3.0661775520664802E-2</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>8362.7376475661204</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0.18030991006099001</v>
+      </c>
+      <c r="M157">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>6.0999999999999899</v>
+      </c>
+      <c r="B158">
+        <v>3.13811111111111</v>
+      </c>
+      <c r="C158">
+        <v>8.0924574171874694E-2</v>
+      </c>
+      <c r="D158">
+        <v>49707.577468379903</v>
+      </c>
+      <c r="E158">
+        <v>41063.715678067099</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>4.3238481226363097E-2</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>8643.8185518315295</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0.180192327147086</v>
+      </c>
+      <c r="M158">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>6.2</v>
+      </c>
+      <c r="B159">
+        <v>3.1895555555555499</v>
+      </c>
+      <c r="C159">
+        <v>8.2251206535347995E-2</v>
+      </c>
+      <c r="D159">
+        <v>51260.143367610697</v>
+      </c>
+      <c r="E159">
+        <v>42330.537611706401</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>6.0334447640772997E-2</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>8929.5454214567108</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>0.180077053738909</v>
+      </c>
+      <c r="M159">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>6.2999999999999901</v>
+      </c>
+      <c r="B160">
+        <v>3.2410000000000001</v>
+      </c>
+      <c r="C160">
+        <v>8.3577838898821394E-2</v>
+      </c>
+      <c r="D160">
+        <v>52835.330679525199</v>
+      </c>
+      <c r="E160">
+        <v>43615.329075513298</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>8.3347570223049602E-2</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>9219.9182564416406</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0.17996400785232</v>
+      </c>
+      <c r="M160">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>6.4</v>
+      </c>
+      <c r="B161">
+        <v>3.2924444444444401</v>
+      </c>
+      <c r="C161">
+        <v>8.4904471262294806E-2</v>
+      </c>
+      <c r="D161">
+        <v>54433.107402399197</v>
+      </c>
+      <c r="E161">
+        <v>44918.056307167499</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0.11403844538973</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>9514.9370567863407</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0.17985311166614501</v>
+      </c>
+      <c r="M161">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>6.5</v>
+      </c>
+      <c r="B162">
+        <v>3.34388888888888</v>
+      </c>
+      <c r="C162">
+        <v>8.6231103625768094E-2</v>
+      </c>
+      <c r="D162">
+        <v>56053.442596843001</v>
+      </c>
+      <c r="E162">
+        <v>46238.686168285203</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0.15460606708647401</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>9814.6018224907893</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0.17974429124928501</v>
+      </c>
+      <c r="M162">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>6.5999999999999899</v>
+      </c>
+      <c r="B163">
+        <v>3.3953333333333302</v>
+      </c>
+      <c r="C163">
+        <v>8.7557735989241506E-2</v>
+      </c>
+      <c r="D163">
+        <v>57696.306452136501</v>
+      </c>
+      <c r="E163">
+        <v>47577.186123325599</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0.20777525586319301</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>10118.912553554999</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0.17963747630961599</v>
+      </c>
+      <c r="M163">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>6.7</v>
+      </c>
+      <c r="B164">
+        <v>3.4467777777777702</v>
+      </c>
+      <c r="C164">
+        <v>8.8884368352714793E-2</v>
+      </c>
+      <c r="D164">
+        <v>59361.670366414903</v>
+      </c>
+      <c r="E164">
+        <v>48933.524219523002</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0.27689691291756702</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>10427.869249978899</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0.179532599962647</v>
+      </c>
+      <c r="M164">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>6.7999999999999901</v>
+      </c>
+      <c r="B165">
+        <v>3.4982222222222199</v>
+      </c>
+      <c r="C165">
+        <v>9.0211000716188205E-2</v>
+      </c>
+      <c r="D165">
+        <v>61049.507041733399</v>
+      </c>
+      <c r="E165">
+        <v>50307.669067778799</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0.36606219184884198</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>10741.471911762699</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0.17942959851809301</v>
+      </c>
+      <c r="M165">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>6.9</v>
+      </c>
+      <c r="B166">
+        <v>3.5496666666666599</v>
+      </c>
+      <c r="C166">
+        <v>9.1537633079661507E-2</v>
+      </c>
+      <c r="D166">
+        <v>62759.790595030798</v>
+      </c>
+      <c r="E166">
+        <v>51699.589824455899</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0.48023166861900102</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>11059.7205389061</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0.17932841128275601</v>
+      </c>
+      <c r="M166">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>7</v>
+      </c>
+      <c r="B167">
+        <v>3.60111111111111</v>
+      </c>
+      <c r="C167">
+        <v>9.2864265443134905E-2</v>
+      </c>
+      <c r="D167">
+        <v>64492.496685993501</v>
+      </c>
+      <c r="E167">
+        <v>53109.256174018898</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0.625380565201473</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>11382.6151314094</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0.17922898037822799</v>
+      </c>
+      <c r="M167">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>7.0999999999999899</v>
+      </c>
+      <c r="B168">
+        <v>3.65255555555555</v>
+      </c>
+      <c r="C168">
+        <v>9.4190897806608304E-2</v>
+      </c>
+      <c r="D168">
+        <v>66247.602662786099</v>
+      </c>
+      <c r="E168">
+        <v>54536.638312469098</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0.80866104458267196</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>11710.1556892724</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0.17913125057212501</v>
+      </c>
+      <c r="M168">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>7.2</v>
+      </c>
+      <c r="B169">
+        <v>3.7040000000000002</v>
+      </c>
+      <c r="C169">
+        <v>9.5517530170081605E-2</v>
+      </c>
+      <c r="D169">
+        <v>68025.087726568207</v>
+      </c>
+      <c r="E169">
+        <v>55981.706931528599</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>1.0385825443613701</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>12042.342212495199</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0.17903516912166101</v>
+      </c>
+      <c r="M169">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>7.2999999999999901</v>
+      </c>
+      <c r="B170">
+        <v>3.7554444444444401</v>
+      </c>
+      <c r="C170">
+        <v>9.6844162533555003E-2</v>
+      </c>
+      <c r="D170">
+        <v>69824.933115659005</v>
+      </c>
+      <c r="E170">
+        <v>57444.433203527697</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>1.3252110535653301</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>12379.1747010777</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>0.17894068562851201</v>
+      </c>
+      <c r="M170">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>7.4</v>
+      </c>
+      <c r="B171">
+        <v>3.8068888888888801</v>
+      </c>
+      <c r="C171">
+        <v>9.8170794897028305E-2</v>
+      </c>
+      <c r="D171">
+        <v>71647.122310139006</v>
+      </c>
+      <c r="E171">
+        <v>58924.788766955899</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>1.68038816306602</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>12720.65315502</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>0.17884775190399399</v>
+      </c>
+      <c r="M171">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>7.5</v>
+      </c>
+      <c r="B172">
+        <v>3.8583333333333298</v>
+      </c>
+      <c r="C172">
+        <v>9.9497427260501703E-2</v>
+      </c>
+      <c r="D172">
+        <v>73491.641257596406</v>
+      </c>
+      <c r="E172">
+        <v>60422.7457126394</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>2.1179706348865301</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>13066.777574322001</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0.17875632184371701</v>
+      </c>
+      <c r="M172">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>7.5999999999999899</v>
+      </c>
+      <c r="B173">
+        <v>3.9097777777777698</v>
+      </c>
+      <c r="C173">
+        <v>0.100824059623975</v>
+      </c>
+      <c r="D173">
+        <v>75358.478620633206</v>
+      </c>
+      <c r="E173">
+        <v>61938.2765705087</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>2.6540911406824002</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>13417.5479589838</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0.17866635131091199</v>
+      </c>
+      <c r="M173">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>7.7</v>
+      </c>
+      <c r="B174">
+        <v>3.96122222222222</v>
+      </c>
+      <c r="C174">
+        <v>0.102150691987448</v>
+      </c>
+      <c r="D174">
+        <v>77247.626046645004</v>
+      </c>
+      <c r="E174">
+        <v>63471.354296923797</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>3.30744071577758</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>13772.9643090054</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0.17857779802773899</v>
+      </c>
+      <c r="M174">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>7.7999999999999901</v>
+      </c>
+      <c r="B175">
+        <v>4.0126666666666599</v>
+      </c>
+      <c r="C175">
+        <v>0.103477324350921</v>
+      </c>
+      <c r="D175">
+        <v>79159.078460277902</v>
+      </c>
+      <c r="E175">
+        <v>65021.9522625276</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>4.0995733635076403</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>14133.026624386701</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>0.17849062147392</v>
+      </c>
+      <c r="M175">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>7.9</v>
+      </c>
+      <c r="B176">
+        <v>4.0641111111111101</v>
+      </c>
+      <c r="C176">
+        <v>0.10480395671439501</v>
+      </c>
+      <c r="D176">
+        <v>81092.834378851898</v>
+      </c>
+      <c r="E176">
+        <v>66590.044240597505</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>5.05523312649236</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>14497.7349051278</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>0.17840478279213301</v>
+      </c>
+      <c r="M176">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>8</v>
+      </c>
+      <c r="B177">
+        <v>4.1155555555555496</v>
+      </c>
+      <c r="C177">
+        <v>0.106130589077868</v>
+      </c>
+      <c r="D177">
+        <v>83048.896250916107</v>
+      </c>
+      <c r="E177">
+        <v>68175.604395869304</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>6.2027038181132301</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>14867.0891512286</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>0.17832024469962199</v>
+      </c>
+      <c r="M177">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>8.0999999999999908</v>
+      </c>
+      <c r="B178">
+        <v>4.16699999999999</v>
+      </c>
+      <c r="C178">
+        <v>0.107457221441341</v>
+      </c>
+      <c r="D178">
+        <v>85027.270817978293</v>
+      </c>
+      <c r="E178">
+        <v>69778.607273808797</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>7.5741814802282699</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>15241.089362689199</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0.17823697140555</v>
+      </c>
+      <c r="M178">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>8.1999999999999904</v>
+      </c>
+      <c r="B179">
+        <v>4.2184444444444402</v>
+      </c>
+      <c r="C179">
+        <v>0.10878385380481501</v>
+      </c>
+      <c r="D179">
+        <v>87027.969499320607</v>
+      </c>
+      <c r="E179">
+        <v>71399.027790307693</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>9.2061695033399307</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>15619.7355395096</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>0.178154928533652</v>
+      </c>
+      <c r="M179">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B180">
+        <v>4.2698888888888797</v>
+      </c>
+      <c r="C180">
+        <v>0.110110486168288</v>
+      </c>
+      <c r="D180">
+        <v>89051.008799685107</v>
+      </c>
+      <c r="E180">
+        <v>73036.841221780996</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>11.139896214357799</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>16003.0276816897</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0.178074083049794</v>
+      </c>
+      <c r="M180">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>8.4</v>
+      </c>
+      <c r="B181">
+        <v>4.3213333333333299</v>
+      </c>
+      <c r="C181">
+        <v>0.111437118531761</v>
+      </c>
+      <c r="D181">
+        <v>91096.410739483399</v>
+      </c>
+      <c r="E181">
+        <v>74692.023195647795</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>13.4217546060495</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>16390.9657892295</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>0.17799440319405899</v>
+      </c>
+      <c r="M181">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>8.5</v>
+      </c>
+      <c r="B182">
+        <v>4.3727777777777703</v>
+      </c>
+      <c r="C182">
+        <v>0.11276375089523499</v>
+      </c>
+      <c r="D182">
+        <v>93164.203307054995</v>
+      </c>
+      <c r="E182">
+        <v>76364.549681173303</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>16.103763752481001</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>16783.549862129199</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>0.17791585841704399</v>
+      </c>
+      <c r="M182">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>8.5999999999999908</v>
+      </c>
+      <c r="B183">
+        <v>4.4242222222222196</v>
+      </c>
+      <c r="C183">
+        <v>0.114090383258708</v>
+      </c>
+      <c r="D183">
+        <v>95254.420932372901</v>
+      </c>
+      <c r="E183">
+        <v>78054.396980656893</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>19.2440513273942</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>17180.779900388599</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0.17783841932004801</v>
+      </c>
+      <c r="M183">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>8.6999999999999904</v>
+      </c>
+      <c r="B184">
+        <v>4.47566666666666</v>
+      </c>
+      <c r="C184">
+        <v>0.115417015622181</v>
+      </c>
+      <c r="D184">
+        <v>97367.104981474098</v>
+      </c>
+      <c r="E184">
+        <v>79761.541720947702</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>22.907356518639201</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>17582.655904007701</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>0.17776205759887101</v>
+      </c>
+      <c r="M184">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B185">
+        <v>4.5271111111111102</v>
+      </c>
+      <c r="C185">
+        <v>0.11674364798565499</v>
+      </c>
+      <c r="D185">
+        <v>99502.304270771405</v>
+      </c>
+      <c r="E185">
+        <v>81485.960845272202</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>27.165552512493001</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>17989.177872986598</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>0.177686745990976</v>
+      </c>
+      <c r="M185">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>8.9</v>
+      </c>
+      <c r="B186">
+        <v>4.5785555555555497</v>
+      </c>
+      <c r="C186">
+        <v>0.118070280349128</v>
+      </c>
+      <c r="D186">
+        <v>101660.075600292</v>
+      </c>
+      <c r="E186">
+        <v>83227.631605359202</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>32.098187607873797</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>18400.345807325299</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>0.17761245822577101</v>
+      </c>
+      <c r="M186">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>9</v>
+      </c>
+      <c r="B187">
+        <v>4.63</v>
+      </c>
+      <c r="C187">
+        <v>0.119396912712602</v>
+      </c>
+      <c r="D187">
+        <v>103840.484304784</v>
+      </c>
+      <c r="E187">
+        <v>84986.531553847803</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>37.793043912919899</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>18816.1597070237</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0.17753916897779101</v>
+      </c>
+      <c r="M187">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>9.0999999999999908</v>
+      </c>
+      <c r="B188">
+        <v>4.6814444444444403</v>
+      </c>
+      <c r="C188">
+        <v>0.120723545076075</v>
+      </c>
+      <c r="D188">
+        <v>106043.604821523</v>
+      </c>
+      <c r="E188">
+        <v>86762.638536965605</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>44.346712475853501</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>19236.619572081901</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0.17746685382258601</v>
+      </c>
+      <c r="M188">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>9.1999999999999904</v>
+      </c>
+      <c r="B189">
+        <v>4.7328888888888798</v>
+      </c>
+      <c r="C189">
+        <v>0.122050177439548</v>
+      </c>
+      <c r="D189">
+        <v>108269.521273572</v>
+      </c>
+      <c r="E189">
+        <v>88555.930687463493</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>51.865183609131897</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>19661.725402499898</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0.17739548919513401</v>
+      </c>
+      <c r="M189">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B190">
+        <v>4.78433333333333</v>
+      </c>
+      <c r="C190">
+        <v>0.123376809803022</v>
+      </c>
+      <c r="D190">
+        <v>110518.328067155</v>
+      </c>
+      <c r="E190">
+        <v>90366.386417797199</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>60.464451081077101</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>20091.4771982776</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>0.17732505235059201</v>
+      </c>
+      <c r="M190">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>9.4</v>
+      </c>
+      <c r="B191">
+        <v>4.8357777777777704</v>
+      </c>
+      <c r="C191">
+        <v>0.124703442166495</v>
+      </c>
+      <c r="D191">
+        <v>112790.13050173</v>
+      </c>
+      <c r="E191">
+        <v>92193.984413542406</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>70.2711287729053</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>20525.874959414999</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>0.177255521327254</v>
+      </c>
+      <c r="M191">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>9.5</v>
+      </c>
+      <c r="B192">
+        <v>4.8872222222222197</v>
+      </c>
+      <c r="C192">
+        <v>0.12603007452996801</v>
+      </c>
+      <c r="D192">
+        <v>115085.04539127801</v>
+      </c>
+      <c r="E192">
+        <v>94038.703627034498</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>81.423078331641804</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>20964.918685912198</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>0.177186874911549</v>
+      </c>
+      <c r="M192">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>9.5999999999999908</v>
+      </c>
+      <c r="B193">
+        <v>4.9386666666666601</v>
+      </c>
+      <c r="C193">
+        <v>0.127356706893442</v>
+      </c>
+      <c r="D193">
+        <v>117403.201695282</v>
+      </c>
+      <c r="E193">
+        <v>95900.523271222104</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>94.070046291007401</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>21408.6083777692</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>0.17711909260495701</v>
+      </c>
+      <c r="M193">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>9.6999999999999904</v>
+      </c>
+      <c r="B194">
+        <v>4.9901111111111103</v>
+      </c>
+      <c r="C194">
+        <v>0.128683339256915</v>
+      </c>
+      <c r="D194">
+        <v>119744.74115779399</v>
+      </c>
+      <c r="E194">
+        <v>97779.422813725803</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>108.374309083139</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>21856.944034986001</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0.177052154592717</v>
+      </c>
+      <c r="M194">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="B195">
+        <v>5.0415555555555498</v>
+      </c>
+      <c r="C195">
+        <v>0.13000997162038799</v>
+      </c>
+      <c r="D195">
+        <v>122109.81895297801</v>
+      </c>
+      <c r="E195">
+        <v>99675.381971091905</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>124.511324323944</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>22309.9256575625</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>0.176986041714213</v>
+      </c>
+      <c r="M195">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>9.9</v>
+      </c>
+      <c r="B196">
+        <v>5.093</v>
+      </c>
+      <c r="C196">
+        <v>0.13133660398386199</v>
+      </c>
+      <c r="D196">
+        <v>124498.604335457</v>
+      </c>
+      <c r="E196">
+        <v>101588.380703234</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>142.67038672396501</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>22767.553245498701</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0.176920735434931</v>
+      </c>
+      <c r="M196">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>10</v>
+      </c>
+      <c r="B197">
+        <v>5.1444444444444404</v>
+      </c>
+      <c r="C197">
+        <v>0.13266323634733501</v>
+      </c>
+      <c r="D197">
+        <v>126911.28129380599</v>
+      </c>
+      <c r="E197">
+        <v>103518.399208056</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>163.05528695473799</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>23229.8267987947</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>0.176856217819884</v>
+      </c>
+      <c r="M197">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>10.1</v>
+      </c>
+      <c r="B198">
+        <v>5.1958888888888799</v>
+      </c>
+      <c r="C198">
+        <v>0.13398986871080901</v>
+      </c>
+      <c r="D198">
+        <v>129348.04920548201</v>
+      </c>
+      <c r="E198">
+        <v>105465.41791624299</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>185.88497178770399</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>23696.746317450499</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>0.176792471508428</v>
+      </c>
+      <c r="M198">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>10.1999999999999</v>
+      </c>
+      <c r="B199">
+        <v>5.2473333333333301</v>
+      </c>
+      <c r="C199">
+        <v>0.135316501074282</v>
+      </c>
+      <c r="D199">
+        <v>131809.12349150499</v>
+      </c>
+      <c r="E199">
+        <v>107429.41748622101</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>211.39420381863201</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>24168.311801465999</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0.17672947969036601</v>
+      </c>
+      <c r="M199">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>10.3</v>
+      </c>
+      <c r="B200">
+        <v>5.2987777777777696</v>
+      </c>
+      <c r="C200">
+        <v>0.136643133437755</v>
+      </c>
+      <c r="D200">
+        <v>134294.73626920499</v>
+      </c>
+      <c r="E200">
+        <v>109410.378799269</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>239.83421909476601</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>24644.523250841299</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>0.17666722608327501</v>
+      </c>
+      <c r="M200">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>10.4</v>
+      </c>
+      <c r="B201">
+        <v>5.3502222222222198</v>
+      </c>
+      <c r="C201">
+        <v>0.13796976580122899</v>
+      </c>
+      <c r="D201">
+        <v>136805.13700134301</v>
+      </c>
+      <c r="E201">
+        <v>111408.28295479401</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>271.47338097328901</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>25125.380665576398</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0.176605694910976</v>
+      </c>
+      <c r="M201">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>10.5</v>
+      </c>
+      <c r="B202">
+        <v>5.4016666666666602</v>
+      </c>
+      <c r="C202">
+        <v>0.13929639816470199</v>
+      </c>
+      <c r="D202">
+        <v>139340.59313996299</v>
+      </c>
+      <c r="E202">
+        <v>113423.11126573601</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>306.59782855604999</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>25610.884045671199</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>0.17654487088307999</v>
+      </c>
+      <c r="M202">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>10.6</v>
+      </c>
+      <c r="B203">
+        <v>5.4531111111111104</v>
+      </c>
+      <c r="C203">
+        <v>0.14062303052817501</v>
+      </c>
+      <c r="D203">
+        <v>141901.390763317</v>
+      </c>
+      <c r="E203">
+        <v>115454.845254126</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>345.512118065621</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>26101.033391125799</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>0.17648473917554999</v>
+      </c>
+      <c r="M203">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>10.6999999999999</v>
+      </c>
+      <c r="B204">
+        <v>5.5045555555555499</v>
+      </c>
+      <c r="C204">
+        <v>0.14194966289164901</v>
+      </c>
+      <c r="D204">
+        <v>144487.835204264</v>
+      </c>
+      <c r="E204">
+        <v>117503.46664677</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>388.53985555419303</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>26595.8287019401</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>0.176425285412211</v>
+      </c>
+      <c r="M204">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>10.8</v>
+      </c>
+      <c r="B205">
+        <v>5.556</v>
+      </c>
+      <c r="C205">
+        <v>0.143276295255122</v>
+      </c>
+      <c r="D205">
+        <v>147100.251668557</v>
+      </c>
+      <c r="E205">
+        <v>119568.957371064</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>436.024319379014</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>27095.2699781142</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>0.176366495647166</v>
+      </c>
+      <c r="M205">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>10.9</v>
+      </c>
+      <c r="B206">
+        <v>5.6074444444444396</v>
+      </c>
+      <c r="C206">
+        <v>0.144602927618595</v>
+      </c>
+      <c r="D206">
+        <v>149738.98584153599</v>
+      </c>
+      <c r="E206">
+        <v>121651.29955093699</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>488.32907095081299</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>27599.357219648002</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>0.17630835634805</v>
+      </c>
+      <c r="M206">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>11</v>
+      </c>
+      <c r="B207">
+        <v>5.65888888888888</v>
+      </c>
+      <c r="C207">
+        <v>0.145929559982069</v>
+      </c>
+      <c r="D207">
+        <v>152404.404481818</v>
+      </c>
+      <c r="E207">
+        <v>123750.47550290301</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>545.83855237332602</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>28108.090426541599</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>0.176250854380093</v>
+      </c>
+      <c r="M207">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>11.1</v>
+      </c>
+      <c r="B208">
+        <v>5.7103333333333302</v>
+      </c>
+      <c r="C208">
+        <v>0.14725619234554199</v>
+      </c>
+      <c r="D208">
+        <v>155096.89600076099</v>
+      </c>
+      <c r="E208">
+        <v>125866.467732241</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>608.95866972479996</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>28621.469598795</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>0.17619397699092801</v>
+      </c>
+      <c r="M208">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>11.1999999999999</v>
+      </c>
+      <c r="B209">
+        <v>5.7617777777777697</v>
+      </c>
+      <c r="C209">
+        <v>0.14858282470901499</v>
+      </c>
+      <c r="D209">
+        <v>157816.87102650301</v>
+      </c>
+      <c r="E209">
+        <v>127999.25892927</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>678.11736082473499</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>29139.494736408102</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>0.17613771179611401</v>
+      </c>
+      <c r="M209">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>11.3</v>
+      </c>
+      <c r="B210">
+        <v>5.8132222222222198</v>
+      </c>
+      <c r="C210">
+        <v>0.14990945707248901</v>
+      </c>
+      <c r="D210">
+        <v>160564.762951407</v>
+      </c>
+      <c r="E210">
+        <v>130148.83196574599</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>753.76514628015104</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>29662.165839380999</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>0.17608204676533401</v>
+      </c>
+      <c r="M210">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>11.4</v>
+      </c>
+      <c r="B211">
+        <v>5.8646666666666603</v>
+      </c>
+      <c r="C211">
+        <v>0.15123608943596201</v>
+      </c>
+      <c r="D211">
+        <v>163341.028461379</v>
+      </c>
+      <c r="E211">
+        <v>132315.16989134499</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>836.37566232097504</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>30189.4829077137</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>0.17602697020922101</v>
+      </c>
+      <c r="M211">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>11.5</v>
+      </c>
+      <c r="B212">
+        <v>5.9161111111111104</v>
+      </c>
+      <c r="C212">
+        <v>0.152562721799435</v>
+      </c>
+      <c r="D212">
+        <v>166146.14804507699</v>
+      </c>
+      <c r="E212">
+        <v>134498.25593025799</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>926.44617341282697</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>30721.445941406</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>0.17597247076679601</v>
+      </c>
+      <c r="M212">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>11.6</v>
+      </c>
+      <c r="B213">
+        <v>5.96755555555555</v>
+      </c>
+      <c r="C213">
+        <v>0.153889354162909</v>
+      </c>
+      <c r="D213">
+        <v>168980.62648039401</v>
+      </c>
+      <c r="E213">
+        <v>136698.07347787399</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>1024.49806206217</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>31258.054940458202</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>0.175918537393461</v>
+      </c>
+      <c r="M213">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>11.6999999999999</v>
+      </c>
+      <c r="B214">
+        <v>6.0190000000000001</v>
+      </c>
+      <c r="C214">
+        <v>0.15521598652638199</v>
+      </c>
+      <c r="D214">
+        <v>171844.99329543699</v>
+      </c>
+      <c r="E214">
+        <v>138914.60609755199</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>1131.0772930154601</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>31799.309904870101</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0.175865159349542</v>
+      </c>
+      <c r="M214">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>11.8</v>
+      </c>
+      <c r="B215">
+        <v>6.0704444444444396</v>
+      </c>
+      <c r="C215">
+        <v>0.15654261888985599</v>
+      </c>
+      <c r="D215">
+        <v>174739.80320188601</v>
+      </c>
+      <c r="E215">
+        <v>141147.837517487</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>1246.7548497571499</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>32345.210834641799</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>0.17581232618933601</v>
+      </c>
+      <c r="M215">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>11.9</v>
+      </c>
+      <c r="B216">
+        <v>6.1218888888888801</v>
+      </c>
+      <c r="C216">
+        <v>0.15786925125332901</v>
+      </c>
+      <c r="D216">
+        <v>177665.636500739</v>
+      </c>
+      <c r="E216">
+        <v>143397.75162766001</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>1372.1271433056199</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>32895.757729773301</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>0.17576002775063801</v>
+      </c>
+      <c r="M216">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>12</v>
+      </c>
+      <c r="B217">
+        <v>6.1733333333333302</v>
+      </c>
+      <c r="C217">
+        <v>0.15919588361680201</v>
+      </c>
+      <c r="D217">
+        <v>180623.09946397899</v>
+      </c>
+      <c r="E217">
+        <v>145664.33247686201</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>1507.8163968527001</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>33450.950590264401</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>0.17570825414473301</v>
+      </c>
+      <c r="M217">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>12.1</v>
+      </c>
+      <c r="B218">
+        <v>6.2247777777777697</v>
+      </c>
+      <c r="C218">
+        <v>0.160522515980276</v>
+      </c>
+      <c r="D218">
+        <v>183612.824700047</v>
+      </c>
+      <c r="E218">
+        <v>147947.56426980899</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>1654.4710141230801</v>
+      </c>
+      <c r="H218">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>34010.789416115404</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>0.17565699574681701</v>
+      </c>
+      <c r="M218">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>12.1999999999999</v>
+      </c>
+      <c r="B219">
+        <v>6.2762222222222199</v>
+      </c>
+      <c r="C219">
+        <v>0.161849148343749</v>
+      </c>
+      <c r="D219">
+        <v>186635.47151457801</v>
+      </c>
+      <c r="E219">
+        <v>150247.43136432301</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>1812.76594292819</v>
+      </c>
+      <c r="H219">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>34575.274207326103</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>0.17560624318682699</v>
+      </c>
+      <c r="M219">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>12.3</v>
+      </c>
+      <c r="B220">
+        <v>6.3276666666666603</v>
+      </c>
+      <c r="C220">
+        <v>0.163175780707222</v>
+      </c>
+      <c r="D220">
+        <v>189691.72627858599</v>
+      </c>
+      <c r="E220">
+        <v>152563.918268596</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>1983.40304609388</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>35144.404963896603</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>0.17555598734067199</v>
+      </c>
+      <c r="M220">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>12.4</v>
+      </c>
+      <c r="B221">
+        <v>6.3791111111111096</v>
+      </c>
+      <c r="C221">
+        <v>0.16450241307069599</v>
+      </c>
+      <c r="D221">
+        <v>192782.30281188001</v>
+      </c>
+      <c r="E221">
+        <v>154897.009638513</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>2167.1114875401199</v>
+      </c>
+      <c r="H221">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>35718.181685826799</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>0.175506219321824</v>
+      </c>
+      <c r="M221">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>12.5</v>
+      </c>
+      <c r="B222">
+        <v>6.43055555555555</v>
+      </c>
+      <c r="C222">
+        <v>0.16582904543416899</v>
+      </c>
+      <c r="D222">
+        <v>195907.942778567</v>
+      </c>
+      <c r="E222">
+        <v>157246.690275058</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>2364.64813039199</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>36296.604373116803</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0.17545693047326799</v>
+      </c>
+      <c r="M222">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>12.6</v>
+      </c>
+      <c r="B223">
+        <v>6.4820000000000002</v>
+      </c>
+      <c r="C223">
+        <v>0.16715567779764201</v>
+      </c>
+      <c r="D223">
+        <v>199069.41607447399</v>
+      </c>
+      <c r="E223">
+        <v>159612.94512177299</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>2576.79792693436</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>36879.673025766497</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0.17540811235978401</v>
+      </c>
+      <c r="M223">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>12.6999999999999</v>
+      </c>
+      <c r="B224">
+        <v>6.5334444444444397</v>
+      </c>
+      <c r="C224">
+        <v>0.16848231016111601</v>
+      </c>
+      <c r="D224">
+        <v>202267.52116572901</v>
+      </c>
+      <c r="E224">
+        <v>161995.759262293</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>2804.3742596598599</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>37467.387643775997</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0.17535975676054999</v>
+      </c>
+      <c r="M224">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>12.8</v>
+      </c>
+      <c r="B225">
+        <v>6.5848888888888801</v>
+      </c>
+      <c r="C225">
+        <v>0.169808942524589</v>
+      </c>
+      <c r="D225">
+        <v>205503.085318711</v>
+      </c>
+      <c r="E225">
+        <v>164395.117917934</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>3048.21917363178</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>38059.748227145297</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0.17531185566204899</v>
+      </c>
+      <c r="M225">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>12.9</v>
+      </c>
+      <c r="B226">
+        <v>6.6363333333333303</v>
+      </c>
+      <c r="C226">
+        <v>0.171135574888062</v>
+      </c>
+      <c r="D226">
+        <v>208776.96465076899</v>
+      </c>
+      <c r="E226">
+        <v>166811.00644534401</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>3309.2034295507801</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>38656.754775874302</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0.175264401251258</v>
+      </c>
+      <c r="M226">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>13</v>
+      </c>
+      <c r="B227">
+        <v>6.6877777777777698</v>
+      </c>
+      <c r="C227">
+        <v>0.17246220725153599</v>
+      </c>
+      <c r="D227">
+        <v>212090.043935308</v>
+      </c>
+      <c r="E227">
+        <v>169243.41033421599</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>3588.2263111287298</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>39258.407289963099</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0.17521738590911701</v>
+      </c>
+      <c r="M227">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>13.1</v>
+      </c>
+      <c r="B228">
+        <v>6.73922222222222</v>
+      </c>
+      <c r="C228">
+        <v>0.17378883961500899</v>
+      </c>
+      <c r="D228">
+        <v>215443.23611927</v>
+      </c>
+      <c r="E228">
+        <v>171692.31520504999</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>3886.2151448079799</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>39864.705769411703</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0.17517080220426101</v>
+      </c>
+      <c r="M228">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>13.1999999999999</v>
+      </c>
+      <c r="B229">
+        <v>6.7906666666666604</v>
+      </c>
+      <c r="C229">
+        <v>0.17511547197848301</v>
+      </c>
+      <c r="D229">
+        <v>218837.48155737401</v>
+      </c>
+      <c r="E229">
+        <v>174157.70680697801</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>4204.1245361759702</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>40475.650214219997</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0.175124642886995</v>
+      </c>
+      <c r="M229">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>13.3</v>
+      </c>
+      <c r="B230">
+        <v>6.8421111111111097</v>
+      </c>
+      <c r="C230">
+        <v>0.17644210434195601</v>
+      </c>
+      <c r="D230">
+        <v>222273.74703242001</v>
+      </c>
+      <c r="E230">
+        <v>176639.57101563</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>4542.9353924017196</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>41091.240624388003</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0.17507890088351299</v>
+      </c>
+      <c r="M230">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>13.4</v>
+      </c>
+      <c r="B231">
+        <v>6.8935555555555501</v>
+      </c>
+      <c r="C231">
+        <v>0.177768736705429</v>
+      </c>
+      <c r="D231">
+        <v>225753.02470616801</v>
+      </c>
+      <c r="E231">
+        <v>179137.89383106699</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>4903.6538751848702</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>41711.476999915903</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0.17503356929033501</v>
+      </c>
+      <c r="M231">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>13.5</v>
+      </c>
+      <c r="B232">
+        <v>6.9450000000000003</v>
+      </c>
+      <c r="C232">
+        <v>0.179095369068903</v>
+      </c>
+      <c r="D232">
+        <v>229276.33121759599</v>
+      </c>
+      <c r="E232">
+        <v>181652.661375745</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>5287.3105010475701</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>42336.359340803399</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0.17498864136896899</v>
+      </c>
+      <c r="M232">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>13.6</v>
+      </c>
+      <c r="B233">
+        <v>6.9964444444444398</v>
+      </c>
+      <c r="C233">
+        <v>0.18042200143237599</v>
+      </c>
+      <c r="D233">
+        <v>232844.70719922299</v>
+      </c>
+      <c r="E233">
+        <v>184183.85989254501</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>5694.9596596272504</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>42965.887647050797</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0.174944110540772</v>
+      </c>
+      <c r="M233">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>13.6999999999999</v>
+      </c>
+      <c r="B234">
+        <v>7.0478888888888802</v>
+      </c>
+      <c r="C234">
+        <v>0.18174863379584899</v>
+      </c>
+      <c r="D234">
+        <v>236459.21750176599</v>
+      </c>
+      <c r="E234">
+        <v>186731.475742832</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>6127.6798402759996</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>43600.061918657899</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>0.17489997038200999</v>
+      </c>
+      <c r="M234">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>13.8</v>
+      </c>
+      <c r="B235">
+        <v>7.0993333333333304</v>
+      </c>
+      <c r="C235">
+        <v>0.18307526615932301</v>
+      </c>
+      <c r="D235">
+        <v>240120.95239033099</v>
+      </c>
+      <c r="E235">
+        <v>189295.49540457601</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>6586.57483012999</v>
+      </c>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>44238.882155624698</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>0.174856214619107</v>
+      </c>
+      <c r="M235">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>13.9</v>
+      </c>
+      <c r="B236">
+        <v>7.1507777777777699</v>
+      </c>
+      <c r="C236">
+        <v>0.18440189852279601</v>
+      </c>
+      <c r="D236">
+        <v>243831.029894626</v>
+      </c>
+      <c r="E236">
+        <v>191875.905470503</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>7072.7760661716802</v>
+      </c>
+      <c r="H236">
+        <v>0</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>44882.3483579514</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>0.174812837124072</v>
+      </c>
+      <c r="M236">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>14</v>
+      </c>
+      <c r="B237">
+        <v>7.2022222222222201</v>
+      </c>
+      <c r="C237">
+        <v>0.18572853088626901</v>
+      </c>
+      <c r="D237">
+        <v>247590.599362829</v>
+      </c>
+      <c r="E237">
+        <v>194472.692646296</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>7587.4461908945405</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>45530.460525637704</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>0.17476983191009501</v>
+      </c>
+      <c r="M237">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>14.1</v>
+      </c>
+      <c r="B238">
+        <v>7.2536666666666596</v>
+      </c>
+      <c r="C238">
+        <v>0.187055163249743</v>
+      </c>
+      <c r="D238">
+        <v>251400.84609352</v>
+      </c>
+      <c r="E238">
+        <v>197085.84374883299</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>8131.7836860027101</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>46183.218658683902</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>0.174727193127307</v>
+      </c>
+      <c r="M238">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>14.2</v>
+      </c>
+      <c r="B239">
+        <v>7.3051111111111098</v>
+      </c>
+      <c r="C239">
+        <v>0.188381795613216</v>
+      </c>
+      <c r="D239">
+        <v>255262.99672084799</v>
+      </c>
+      <c r="E239">
+        <v>199715.345704468</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>8707.0282592900403</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>46840.622757089797</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>0.17468491505870501</v>
+      </c>
+      <c r="M239">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>14.3</v>
+      </c>
+      <c r="B240">
+        <v>7.3565555555555502</v>
+      </c>
+      <c r="C240">
+        <v>0.18970842797668899</v>
+      </c>
+      <c r="D240">
+        <v>259178.32482892001</v>
+      </c>
+      <c r="E240">
+        <v>202361.18554734701</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>9314.4664607171508</v>
+      </c>
+      <c r="H240">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>47502.672820855398</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>0.17464299211621101</v>
+      </c>
+      <c r="M240">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>14.4</v>
+      </c>
+      <c r="B241">
+        <v>7.4080000000000004</v>
+      </c>
+      <c r="C241">
+        <v>0.19103506034016299</v>
+      </c>
+      <c r="D241">
+        <v>263148.156099719</v>
+      </c>
+      <c r="E241">
+        <v>205023.35041776701</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>9955.43683197051</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>48169.368849980798</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>0.17460141883688801</v>
+      </c>
+      <c r="M241">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>14.5</v>
+      </c>
+      <c r="B242">
+        <v>7.4594444444444399</v>
+      </c>
+      <c r="C242">
+        <v>0.19236169270363601</v>
+      </c>
+      <c r="D242">
+        <v>267173.872180896</v>
+      </c>
+      <c r="E242">
+        <v>207701.82756056599</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>10631.333775863901</v>
+      </c>
+      <c r="H242">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>48840.710844465997</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>0.17456018987928401</v>
+      </c>
+      <c r="M242">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>14.6</v>
+      </c>
+      <c r="B243">
+        <v>7.5108888888888803</v>
+      </c>
+      <c r="C243">
+        <v>0.19368832506711001</v>
+      </c>
+      <c r="D243">
+        <v>271256.912417593</v>
+      </c>
+      <c r="E243">
+        <v>210396.60432354899</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>11343.6092897334</v>
+      </c>
+      <c r="H243">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>49516.698804310901</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <v>0.174519300019913</v>
+      </c>
+      <c r="M243">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>14.7</v>
+      </c>
+      <c r="B244">
+        <v>7.5623333333333296</v>
+      </c>
+      <c r="C244">
+        <v>0.195014957430583</v>
+      </c>
+      <c r="D244">
+        <v>275398.772640237</v>
+      </c>
+      <c r="E244">
+        <v>213107.66815595201</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>12093.771754768801</v>
+      </c>
+      <c r="H244">
+        <v>0</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>50197.332729515598</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>0.17447874414986</v>
+      </c>
+      <c r="M244">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>14.8</v>
+      </c>
+      <c r="B245">
+        <v>7.61377777777777</v>
+      </c>
+      <c r="C245">
+        <v>0.196341589794056</v>
+      </c>
+      <c r="D245">
+        <v>279601.00034279499</v>
+      </c>
+      <c r="E245">
+        <v>215835.00660693701</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>12883.3811157772</v>
+      </c>
+      <c r="H245">
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>50882.612620079999</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>0.174438517271501</v>
+      </c>
+      <c r="M245">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>14.9</v>
+      </c>
+      <c r="B246">
+        <v>7.6652222222222202</v>
+      </c>
+      <c r="C246">
+        <v>0.19766822215752999</v>
+      </c>
+      <c r="D246">
+        <v>283865.18581791699</v>
+      </c>
+      <c r="E246">
+        <v>218578.60732411899</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>13714.040017793801</v>
+      </c>
+      <c r="H246">
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>51572.5384760042</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>0.17439861449534499</v>
+      </c>
+      <c r="M246">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>15</v>
+      </c>
+      <c r="B247">
+        <v>7.7166666666666597</v>
+      </c>
+      <c r="C247">
+        <v>0.19899485452100299</v>
+      </c>
+      <c r="D247">
+        <v>288192.94912185997</v>
+      </c>
+      <c r="E247">
+        <v>221338.45805212299</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>14587.380772448099</v>
+      </c>
+      <c r="H247">
+        <v>0</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>52267.1102972882</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>0.174359031036985</v>
+      </c>
+      <c r="M247">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>15.1</v>
+      </c>
+      <c r="B248">
+        <v>7.7681111111111099</v>
+      </c>
+      <c r="C248">
+        <v>0.20032148688447601</v>
+      </c>
+      <c r="D248">
+        <v>292585.92310069699</v>
+      </c>
+      <c r="E248">
+        <v>224114.54663117899</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>15505.0483855866</v>
+      </c>
+      <c r="H248">
+        <v>0</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>52966.328083931898</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>0.17431976221414899</v>
+      </c>
+      <c r="M248">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>15.2</v>
+      </c>
+      <c r="B249">
+        <v>7.8195555555555503</v>
+      </c>
+      <c r="C249">
+        <v>0.20164811924795001</v>
+      </c>
+      <c r="D249">
+        <v>297045.73309224402</v>
+      </c>
+      <c r="E249">
+        <v>226906.86099573399</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <v>16468.680260575002</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>53670.191835935402</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>0.17428080344386301</v>
+      </c>
+      <c r="M249">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>15.3</v>
+      </c>
+      <c r="B250">
+        <v>7.8710000000000004</v>
+      </c>
+      <c r="C250">
+        <v>0.202974751611423</v>
+      </c>
+      <c r="D250">
+        <v>301573.97429483902</v>
+      </c>
+      <c r="E250">
+        <v>229715.38917310699</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>17479.883568432899</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>54378.701553298699</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>0.17424215023970099</v>
+      </c>
+      <c r="M250">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>15.4</v>
+      </c>
+      <c r="B251">
+        <v>7.92244444444444</v>
+      </c>
+      <c r="C251">
+        <v>0.204301383974896</v>
+      </c>
+      <c r="D251">
+        <v>306172.188133827</v>
+      </c>
+      <c r="E251">
+        <v>232540.119282164</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <v>18540.2116156421</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>55091.8572360217</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>0.17420379820913301</v>
+      </c>
+      <c r="M251">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>15.5</v>
+      </c>
+      <c r="B252">
+        <v>7.9738888888888804</v>
+      </c>
+      <c r="C252">
+        <v>0.20562801633837</v>
+      </c>
+      <c r="D252">
+        <v>310841.83923020097</v>
+      </c>
+      <c r="E252">
+        <v>235381.03953201699</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>19651.140814079801</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>55809.658884104399</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>0.17416574305096599</v>
+      </c>
+      <c r="M252">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>15.6</v>
+      </c>
+      <c r="B253">
+        <v>8.0253333333333305</v>
+      </c>
+      <c r="C253">
+        <v>0.20695464870184299</v>
+      </c>
+      <c r="D253">
+        <v>315584.294757917</v>
+      </c>
+      <c r="E253">
+        <v>238238.13822076199</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>20814.0500396077</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>56532.106497546898</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>0.17412798055286</v>
+      </c>
+      <c r="M253">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>15.7</v>
+      </c>
+      <c r="B254">
+        <v>8.0767777777777692</v>
+      </c>
+      <c r="C254">
+        <v>0.20828128106531599</v>
+      </c>
+      <c r="D254">
+        <v>320400.80804671498</v>
+      </c>
+      <c r="E254">
+        <v>241111.40373423099</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>22030.204236134799</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>57259.200076349203</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <v>0.17409050658894301</v>
+      </c>
+      <c r="M254">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>15.8</v>
+      </c>
+      <c r="B255">
+        <v>8.1282222222222202</v>
+      </c>
+      <c r="C255">
+        <v>0.20960791342879001</v>
+      </c>
+      <c r="D255">
+        <v>325292.50823208201</v>
+      </c>
+      <c r="E255">
+        <v>244000.82454477399</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>23300.7440667964</v>
+      </c>
+      <c r="H255">
+        <v>0</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>57990.939620511301</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>0.174053317117488</v>
+      </c>
+      <c r="M255">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>15.9</v>
+      </c>
+      <c r="B256">
+        <v>8.1796666666666606</v>
+      </c>
+      <c r="C256">
+        <v>0.21093454579226301</v>
+      </c>
+      <c r="D256">
+        <v>330260.39756762801</v>
+      </c>
+      <c r="E256">
+        <v>246906.38921006699</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <v>24626.683227527901</v>
+      </c>
+      <c r="H256">
+        <v>0</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>58727.325130033001</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>0.174016408178682</v>
+      </c>
+      <c r="M256">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>16</v>
+      </c>
+      <c r="B257">
+        <v>8.2311111111111099</v>
+      </c>
+      <c r="C257">
+        <v>0.212261178155737</v>
+      </c>
+      <c r="D257">
+        <v>335305.357700933</v>
+      </c>
+      <c r="E257">
+        <v>249828.08637194199</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>26008.914724077102</v>
+      </c>
+      <c r="H257">
+        <v>0</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>59468.356604914603</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+      <c r="L257">
+        <v>0.173979775892452</v>
+      </c>
+      <c r="M257">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="B258">
+        <v>8.2825555555555503</v>
+      </c>
+      <c r="C258">
+        <v>0.21358781051921</v>
+      </c>
+      <c r="D258">
+        <v>340428.16578491702</v>
+      </c>
+      <c r="E258">
+        <v>252765.90475523699</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+      <c r="G258">
+        <v>27448.226984523899</v>
+      </c>
+      <c r="H258">
+        <v>0</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>60214.034045155902</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <v>0.17394341645638001</v>
+      </c>
+      <c r="M258">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>16.2</v>
+      </c>
+      <c r="B259">
+        <v>8.3339999999999996</v>
+      </c>
+      <c r="C259">
+        <v>0.21491444288268299</v>
+      </c>
+      <c r="D259">
+        <v>345629.52077606501</v>
+      </c>
+      <c r="E259">
+        <v>255719.83316668001</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>28945.330158628301</v>
+      </c>
+      <c r="H259">
+        <v>0</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>60964.357450757001</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259">
+        <v>0.173907326143667</v>
+      </c>
+      <c r="M259">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>16.3</v>
+      </c>
+      <c r="B260">
+        <v>8.38544444444444</v>
+      </c>
+      <c r="C260">
+        <v>0.21624107524615699</v>
+      </c>
+      <c r="D260">
+        <v>350910.07969021797</v>
+      </c>
+      <c r="E260">
+        <v>258689.860493777</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>30500.892374723</v>
+      </c>
+      <c r="H260">
+        <v>0</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>61719.326821717797</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>0.17387150130117801</v>
+      </c>
+      <c r="M260">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>16.399999999999899</v>
+      </c>
+      <c r="B261">
+        <v>8.4368888888888804</v>
+      </c>
+      <c r="C261">
+        <v>0.21756770760963001</v>
+      </c>
+      <c r="D261">
+        <v>356270.50298508798</v>
+      </c>
+      <c r="E261">
+        <v>261675.975703743</v>
+      </c>
+      <c r="F261">
+        <v>0</v>
+      </c>
+      <c r="G261">
+        <v>32115.585123306799</v>
+      </c>
+      <c r="H261">
+        <v>0</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>62478.942158038401</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <v>0.173835938347536</v>
+      </c>
+      <c r="M261">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>16.5</v>
+      </c>
+      <c r="B262">
+        <v>8.4883333333333297</v>
+      </c>
+      <c r="C262">
+        <v>0.21889433997310301</v>
+      </c>
+      <c r="D262">
+        <v>361711.50765887898</v>
+      </c>
+      <c r="E262">
+        <v>264678.16784243297</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+      <c r="G262">
+        <v>33790.136356727096</v>
+      </c>
+      <c r="H262">
+        <v>0</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>63243.203459718701</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>0.17380063377128999</v>
+      </c>
+      <c r="M262">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="B263">
+        <v>8.5397777777777701</v>
+      </c>
+      <c r="C263">
+        <v>0.220220972336577</v>
+      </c>
+      <c r="D263">
+        <v>367233.92613918899</v>
+      </c>
+      <c r="E263">
+        <v>267696.42603331001</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>35525.389379120701</v>
+      </c>
+      <c r="H263">
+        <v>0</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>64012.110726758903</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>0.17376558412912799</v>
+      </c>
+      <c r="M263">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>16.7</v>
+      </c>
+      <c r="B264">
+        <v>8.5912222222222194</v>
+      </c>
+      <c r="C264">
+        <v>0.22154760470005</v>
+      </c>
+      <c r="D264">
+        <v>372838.76862409501</v>
+      </c>
+      <c r="E264">
+        <v>270730.73947642202</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>37322.365188513599</v>
+      </c>
+      <c r="H264">
+        <v>0</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>64785.663959158701</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <v>0.17373078604415301</v>
+      </c>
+      <c r="M264">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>16.8</v>
+      </c>
+      <c r="B265">
+        <v>8.6426666666666598</v>
+      </c>
+      <c r="C265">
+        <v>0.222874237063523</v>
+      </c>
+      <c r="D265">
+        <v>378527.286258056</v>
+      </c>
+      <c r="E265">
+        <v>273781.09744740801</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <v>39182.325653729902</v>
+      </c>
+      <c r="H265">
+        <v>0</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>65563.863156918305</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <v>0.17369623620421501</v>
+      </c>
+      <c r="M265">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>16.899999999999899</v>
+      </c>
+      <c r="B266">
+        <v>8.6941111111111091</v>
+      </c>
+      <c r="C266">
+        <v>0.22420086942699699</v>
+      </c>
+      <c r="D266">
+        <v>384301.03239745199</v>
+      </c>
+      <c r="E266">
+        <v>276847.48929651099</v>
+      </c>
+      <c r="F266">
+        <v>0</v>
+      </c>
+      <c r="G266">
+        <v>41106.834780902696</v>
+      </c>
+      <c r="H266">
+        <v>0</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>66346.708320037695</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <v>0.17366193136028699</v>
+      </c>
+      <c r="M266">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>17</v>
+      </c>
+      <c r="B267">
+        <v>8.7455555555555495</v>
+      </c>
+      <c r="C267">
+        <v>0.22552750179046999</v>
+      </c>
+      <c r="D267">
+        <v>390161.919249003</v>
+      </c>
+      <c r="E267">
+        <v>279929.90444762103</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>43097.815352865</v>
+      </c>
+      <c r="H267">
+        <v>0</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>67134.199448516898</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <v>0.17362786832489599</v>
+      </c>
+      <c r="M267">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="B268">
+        <v>8.7970000000000006</v>
+      </c>
+      <c r="C268">
+        <v>0.22685413415394301</v>
+      </c>
+      <c r="D268">
+        <v>396112.26734035701</v>
+      </c>
+      <c r="E268">
+        <v>283028.33239732898</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>45157.598400671603</v>
+      </c>
+      <c r="H268">
+        <v>0</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>67926.336542355799</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>0.17359404397060299</v>
+      </c>
+      <c r="M268">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>17.2</v>
+      </c>
+      <c r="B269">
+        <v>8.8484444444444392</v>
+      </c>
+      <c r="C269">
+        <v>0.22818076651741701</v>
+      </c>
+      <c r="D269">
+        <v>402154.84558442299</v>
+      </c>
+      <c r="E269">
+        <v>286142.76271400199</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <v>47288.963268866501</v>
+      </c>
+      <c r="H269">
+        <v>0</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>68723.119601554397</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+      <c r="L269">
+        <v>0.17356045522852401</v>
+      </c>
+      <c r="M269">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>17.3</v>
+      </c>
+      <c r="B270">
+        <v>8.8998888888888903</v>
+      </c>
+      <c r="C270">
+        <v>0.22950739888089</v>
+      </c>
+      <c r="D270">
+        <v>408292.90009740798</v>
+      </c>
+      <c r="E270">
+        <v>289273.18503687199</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>49495.166434422397</v>
+      </c>
+      <c r="H270">
+        <v>0</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>69524.548626112897</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>0.173527099086905</v>
+      </c>
+      <c r="M270">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>17.399999999999899</v>
+      </c>
+      <c r="B271">
+        <v>8.9513333333333307</v>
+      </c>
+      <c r="C271">
+        <v>0.230834031244363</v>
+      </c>
+      <c r="D271">
+        <v>414530.17038880597</v>
+      </c>
+      <c r="E271">
+        <v>292419.58907514601</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>51779.957697628102</v>
+      </c>
+      <c r="H271">
+        <v>0</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>70330.623616031007</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>0.17349397258972701</v>
+      </c>
+      <c r="M271">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>17.5</v>
+      </c>
+      <c r="B272">
+        <v>9.0027777777777693</v>
+      </c>
+      <c r="C272">
+        <v>0.23216066360783699</v>
+      </c>
+      <c r="D272">
+        <v>420870.892022944</v>
+      </c>
+      <c r="E272">
+        <v>295581.96460712899</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>54147.582844505603</v>
+      </c>
+      <c r="H272">
+        <v>0</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>71141.344571309004</v>
+      </c>
+      <c r="K272">
+        <v>0</v>
+      </c>
+      <c r="L272">
+        <v>0.17346107283536499</v>
+      </c>
+      <c r="M272">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="B273">
+        <v>9.0542222222222204</v>
+      </c>
+      <c r="C273">
+        <v>0.23348729597130999</v>
+      </c>
+      <c r="D273">
+        <v>427319.78532175103</v>
+      </c>
+      <c r="E273">
+        <v>298760.30147936201</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>56602.772350442101</v>
+      </c>
+      <c r="H273">
+        <v>0</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>71956.711491946699</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <v>0.17342839697527701</v>
+      </c>
+      <c r="M273">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>17.7</v>
+      </c>
+      <c r="B274">
+        <v>9.1056666666666608</v>
+      </c>
+      <c r="C274">
+        <v>0.23481392833478401</v>
+      </c>
+      <c r="D274">
+        <v>433882.03010931599</v>
+      </c>
+      <c r="E274">
+        <v>301954.58960578201</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>59150.716125590101</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>72776.724377944105</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>0.17339594221274299</v>
+      </c>
+      <c r="M274">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>17.8</v>
+      </c>
+      <c r="B275">
+        <v>9.1571111111111101</v>
+      </c>
+      <c r="C275">
+        <v>0.23614056069825701</v>
+      </c>
+      <c r="D275">
+        <v>440563.22687083</v>
+      </c>
+      <c r="E275">
+        <v>305164.81896688603</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <v>61797.024674642496</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>73601.383229301297</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <v>0.17336370580162699</v>
+      </c>
+      <c r="M275">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>17.899999999999899</v>
+      </c>
+      <c r="B276">
+        <v>9.2085555555555505</v>
+      </c>
+      <c r="C276">
+        <v>0.23746719306173</v>
+      </c>
+      <c r="D276">
+        <v>447369.34500142903</v>
+      </c>
+      <c r="E276">
+        <v>308390.97960892401</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>64547.677346486402</v>
+      </c>
+      <c r="H276">
+        <v>0</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>74430.688046018302</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <v>0.17333168504518801</v>
+      </c>
+      <c r="M276">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>18</v>
+      </c>
+      <c r="B277">
+        <v>9.26</v>
+      </c>
+      <c r="C277">
+        <v>0.238793825425204</v>
+      </c>
+      <c r="D277">
+        <v>454306.65905292903</v>
+      </c>
+      <c r="E277">
+        <v>311633.06164309499</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <v>67408.958581739105</v>
+      </c>
+      <c r="H277">
+        <v>0</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>75264.638828095107</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+      <c r="L277">
+        <v>0.173299877294917</v>
+      </c>
+      <c r="M277">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="B278">
+        <v>9.3114444444444402</v>
+      </c>
+      <c r="C278">
+        <v>0.24012045778867699</v>
+      </c>
+      <c r="D278">
+        <v>461381.67405502102</v>
+      </c>
+      <c r="E278">
+        <v>314891.05524475803</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>70387.383234731402</v>
+      </c>
+      <c r="H278">
+        <v>0</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>76103.235575531493</v>
+      </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
+      <c r="L278">
+        <v>0.17326827994941199</v>
+      </c>
+      <c r="M278">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>18.2</v>
+      </c>
+      <c r="B279">
+        <v>9.3628888888888895</v>
+      </c>
+      <c r="C279">
+        <v>0.24144709015214999</v>
+      </c>
+      <c r="D279">
+        <v>468601.04110438598</v>
+      </c>
+      <c r="E279">
+        <v>318164.95065266802</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>73489.6121633898</v>
+      </c>
+      <c r="H279">
+        <v>0</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>76946.478288327795</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+      <c r="L279">
+        <v>0.173236890453286</v>
+      </c>
+      <c r="M279">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>18.3</v>
+      </c>
+      <c r="B280">
+        <v>9.4143333333333299</v>
+      </c>
+      <c r="C280">
+        <v>0.24277372251562401</v>
+      </c>
+      <c r="D280">
+        <v>475971.46449604601</v>
+      </c>
+      <c r="E280">
+        <v>321454.73816821101</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>76722.359361351293</v>
+      </c>
+      <c r="H280">
+        <v>0</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>77794.366966483794</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <v>0.17320570629610099</v>
+      </c>
+      <c r="M280">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>18.399999999999899</v>
+      </c>
+      <c r="B281">
+        <v>9.4657777777777703</v>
+      </c>
+      <c r="C281">
+        <v>0.24410035487909701</v>
+      </c>
+      <c r="D281">
+        <v>483499.60173290898</v>
+      </c>
+      <c r="E281">
+        <v>324760.40815466002</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>80092.291968249599</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>78646.901609999593</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>0.17317472501133699</v>
+      </c>
+      <c r="M281">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>18.5</v>
+      </c>
+      <c r="B282">
+        <v>9.5172222222222196</v>
+      </c>
+      <c r="C282">
+        <v>0.24542698724257</v>
+      </c>
+      <c r="D282">
+        <v>491191.95780733001</v>
+      </c>
+      <c r="E282">
+        <v>328081.95103644498</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>83605.924552009397</v>
+      </c>
+      <c r="H282">
+        <v>0</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>79504.082218875104</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+      <c r="L282">
+        <v>0.173143944175389</v>
+      </c>
+      <c r="M282">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="B283">
+        <v>9.56866666666666</v>
+      </c>
+      <c r="C283">
+        <v>0.246753619606044</v>
+      </c>
+      <c r="D283">
+        <v>499054.775215414</v>
+      </c>
+      <c r="E283">
+        <v>331419.35729843</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>87269.509123873504</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>80365.9087931104</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+      <c r="L283">
+        <v>0.173113361406593</v>
+      </c>
+      <c r="M283">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>18.7</v>
+      </c>
+      <c r="B284">
+        <v>9.6201111111111093</v>
+      </c>
+      <c r="C284">
+        <v>0.248080251969517</v>
+      </c>
+      <c r="D284">
+        <v>507093.92124916299</v>
+      </c>
+      <c r="E284">
+        <v>334772.61748520797</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <v>91088.922431249506</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>81232.381332705394</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <v>0.173082974364278</v>
+      </c>
+      <c r="M284">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>18.8</v>
+      </c>
+      <c r="B285">
+        <v>9.6715555555555497</v>
+      </c>
+      <c r="C285">
+        <v>0.24940688433299099</v>
+      </c>
+      <c r="D285">
+        <v>515314.77421694901</v>
+      </c>
+      <c r="E285">
+        <v>338141.72220040398</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>95069.552178883896</v>
+      </c>
+      <c r="H285">
+        <v>0</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>82103.499837660202</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>0.173052780747841</v>
+      </c>
+      <c r="M285">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>18.899999999999899</v>
+      </c>
+      <c r="B286">
+        <v>9.7230000000000008</v>
+      </c>
+      <c r="C286">
+        <v>0.25073351669646399</v>
+      </c>
+      <c r="D286">
+        <v>523722.11036776501</v>
+      </c>
+      <c r="E286">
+        <v>341526.66210599302</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>99216.183953797707</v>
+      </c>
+      <c r="H286">
+        <v>0</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>82979.264307974794</v>
+      </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <v>0.17302277829585799</v>
+      </c>
+      <c r="M286">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>19</v>
+      </c>
+      <c r="B287">
+        <v>9.7744444444444394</v>
+      </c>
+      <c r="C287">
+        <v>0.25206014905993701</v>
+      </c>
+      <c r="D287">
+        <v>532319.993432638</v>
+      </c>
+      <c r="E287">
+        <v>344927.42792162398</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>103532.89076736401</v>
+      </c>
+      <c r="H287">
+        <v>0</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>83859.674743649099</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <v>0.17299296478520601</v>
+      </c>
+      <c r="M287">
+        <v>0.15833482744183999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>104</v>
+      </c>
+      <c r="B292">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>105</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>106</v>
+      </c>
+      <c r="B297">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>107</v>
+      </c>
+      <c r="B298">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>108</v>
+      </c>
+      <c r="B301">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>109</v>
+      </c>
+      <c r="B302">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8DE46C-D874-4835-A3A6-667EC9ED79BA}">
+  <dimension ref="A2:M302"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>39.398000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>19.498999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>175.554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
         <v>164.833</v>
       </c>
     </row>
